--- a/DMSNewVSale_2025-11-05_15-30.xlsx
+++ b/DMSNewVSale_2025-11-05_15-30.xlsx
@@ -389,10 +389,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -449,10 +452,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سويت كوكو</t>
@@ -2309,7 +2309,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2319,14 +2319,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2335,14 +2335,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2352,11 +2352,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>11</v>
@@ -2368,14 +2368,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2385,11 +2385,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>11</v>
@@ -2401,20 +2401,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>97</v>
@@ -2434,20 +2434,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2480,7 +2480,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2513,15 +2513,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>122</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2546,18 +2546,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2573,13 +2573,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2612,7 +2612,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2645,7 +2645,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2678,7 +2678,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2711,7 +2711,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2744,7 +2744,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2760,7 +2760,7 @@
     </row>
     <row r="56" ht="26.25" customHeight="1">
       <c r="N56" s="13">
-        <v>3211.5999999999999</v>
+        <v>3230.4299999999998</v>
       </c>
       <c r="O56" s="13"/>
       <c r="P56" s="13"/>
